--- a/scrum/qa/backreport.xlsx
+++ b/scrum/qa/backreport.xlsx
@@ -87,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -110,11 +110,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -122,9 +159,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,7 +532,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -507,12 +549,12 @@
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
@@ -570,7 +612,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/scrum/qa/backreport.xlsx
+++ b/scrum/qa/backreport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>ID TEST</t>
   </si>
@@ -64,6 +64,45 @@
   </si>
   <si>
     <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Functionality: Load the website</t>
+  </si>
+  <si>
+    <t>Render the full website</t>
+  </si>
+  <si>
+    <t>The website renders quickly</t>
+  </si>
+  <si>
+    <t>The website renders very sow</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>Currency signs</t>
+  </si>
+  <si>
+    <t>News content</t>
+  </si>
+  <si>
+    <t>Go to News Section</t>
+  </si>
+  <si>
+    <t>Read the news</t>
+  </si>
+  <si>
+    <t>Read the content of relevant news</t>
+  </si>
+  <si>
+    <t>Some APIs return irrelevant extra content info</t>
   </si>
 </sst>
 </file>
@@ -151,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -165,8 +204,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -547,14 +587,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
@@ -584,7 +624,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -592,30 +632,158 @@
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1" t="s">
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="16" spans="1:7">
+      <c r="D16" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
